--- a/Budget and Wedding.xlsx
+++ b/Budget and Wedding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/572d0a92ad25842f/Documents/Budget API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{97826B45-CBC0-4111-BE9A-936F975FB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA58CDBB-E91C-405A-8D0B-1D916C720070}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{97826B45-CBC0-4111-BE9A-936F975FB5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9841669B-09F9-4D1F-9285-5076ABD1A1F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -604,6 +604,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -809,8 +813,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -935,15 +939,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="3">
-        <f>24.5*25*4</f>
-        <v>2450</v>
+        <f>24.5*20*4</f>
+        <v>1960</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3">
         <f>SUM(H2:H16)</f>
-        <v>805.09666666666669</v>
+        <v>957.12333333333333</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>19</v>
@@ -958,7 +962,7 @@
       </c>
       <c r="B6" s="24">
         <f>SUM(B2:B5)</f>
-        <v>7168.5599999999995</v>
+        <v>6678.5599999999995</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
@@ -1000,7 +1004,7 @@
       </c>
       <c r="H8" s="3">
         <f>K14</f>
-        <v>197.97333333333336</v>
+        <v>350</v>
       </c>
       <c r="J8" s="20" t="s">
         <v>52</v>
@@ -1029,8 +1033,7 @@
         <v>53</v>
       </c>
       <c r="K9" s="17">
-        <f>L9/12</f>
-        <v>73.3</v>
+        <v>350</v>
       </c>
       <c r="L9">
         <v>879.6</v>
@@ -1048,7 +1051,7 @@
       </c>
       <c r="E10" s="3">
         <f>SUM(H19:H20)</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>30</v>
@@ -1060,8 +1063,7 @@
         <v>54</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" ref="K10:K13" si="0">L10/12</f>
-        <v>80.93416666666667</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>971.21</v>
@@ -1073,14 +1075,14 @@
       </c>
       <c r="B11" s="23">
         <f>B6</f>
-        <v>7168.5599999999995</v>
+        <v>6678.5599999999995</v>
       </c>
       <c r="D11" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="27">
         <f>SUM(E2:E10)</f>
-        <v>5280.0966666666664</v>
+        <v>5132.123333333333</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>32</v>
@@ -1093,8 +1095,7 @@
         <v>55</v>
       </c>
       <c r="K11" s="17">
-        <f>L11/12</f>
-        <v>26.778333333333332</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>321.33999999999997</v>
@@ -1106,7 +1107,7 @@
       </c>
       <c r="B12" s="25">
         <f>E11</f>
-        <v>5280.0966666666664</v>
+        <v>5132.123333333333</v>
       </c>
       <c r="D12" s="10"/>
       <c r="G12" s="3" t="s">
@@ -1119,8 +1120,7 @@
         <v>56</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" si="0"/>
-        <v>8.9608333333333334</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>107.53</v>
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B13" s="28">
         <f>B11-B12</f>
-        <v>1888.4633333333331</v>
+        <v>1546.4366666666665</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>36</v>
@@ -1147,8 +1147,7 @@
         <v>59</v>
       </c>
       <c r="K13" s="18">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>96</v>
@@ -1157,7 +1156,7 @@
     <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="11">
         <f>ROUND(B13,-2)-200</f>
-        <v>1700</v>
+        <v>1300</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>38</v>
@@ -1174,13 +1173,13 @@
       </c>
       <c r="K14" s="19">
         <f>SUM(K9:K13)</f>
-        <v>197.97333333333336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14">
       <c r="A15" s="11">
         <f>12*A14</f>
-        <v>20400</v>
+        <v>15600</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>40</v>
@@ -1223,7 +1222,7 @@
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="11">
         <f>A15</f>
-        <v>20400</v>
+        <v>15600</v>
       </c>
       <c r="B17" s="11">
         <v>1</v>
@@ -1237,8 +1236,8 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="16">
-        <f t="shared" ref="A18:A36" si="1">FV(0.08,1,,A17)*-1</f>
-        <v>22032</v>
+        <f t="shared" ref="A18:A36" si="0">FV(0.08,1,,A17)*-1</f>
+        <v>16848</v>
       </c>
       <c r="B18" s="11">
         <v>2</v>
@@ -1259,8 +1258,8 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="16">
-        <f t="shared" si="1"/>
-        <v>23794.560000000001</v>
+        <f t="shared" si="0"/>
+        <v>18195.84</v>
       </c>
       <c r="B19" s="11">
         <v>3</v>
@@ -1282,8 +1281,8 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="16">
-        <f t="shared" si="1"/>
-        <v>25698.124800000001</v>
+        <f t="shared" si="0"/>
+        <v>19651.5072</v>
       </c>
       <c r="B20" s="11">
         <v>4</v>
@@ -1292,13 +1291,13 @@
         <v>47</v>
       </c>
       <c r="H20" s="6">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="16">
-        <f t="shared" si="1"/>
-        <v>27753.974784000002</v>
+        <f t="shared" si="0"/>
+        <v>21223.627776000001</v>
       </c>
       <c r="B21" s="11">
         <v>5</v>
@@ -1309,21 +1308,21 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="16">
-        <f t="shared" si="1"/>
-        <v>29974.292766720006</v>
+        <f t="shared" si="0"/>
+        <v>22921.517998080002</v>
       </c>
       <c r="B22" s="11">
         <v>6</v>
       </c>
       <c r="D22" s="11">
         <f>SUM(A17:A21)</f>
-        <v>119678.65958400001</v>
+        <v>91518.974975999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="16">
-        <f t="shared" si="1"/>
-        <v>32372.23618805761</v>
+        <f t="shared" si="0"/>
+        <v>24755.239437926404</v>
       </c>
       <c r="B23" s="11">
         <v>7</v>
@@ -1331,8 +1330,8 @@
     </row>
     <row r="24" spans="1:8" ht="12.5">
       <c r="A24" s="16">
-        <f t="shared" si="1"/>
-        <v>34962.015083102218</v>
+        <f t="shared" si="0"/>
+        <v>26735.658592960517</v>
       </c>
       <c r="B24" s="11">
         <v>8</v>
@@ -1340,8 +1339,8 @@
     </row>
     <row r="25" spans="1:8" ht="12.5">
       <c r="A25" s="16">
-        <f t="shared" si="1"/>
-        <v>37758.976289750397</v>
+        <f t="shared" si="0"/>
+        <v>28874.511280397361</v>
       </c>
       <c r="B25" s="11">
         <v>9</v>
@@ -1352,55 +1351,55 @@
     </row>
     <row r="26" spans="1:8" ht="12.5">
       <c r="A26" s="16">
-        <f t="shared" si="1"/>
-        <v>40779.694392930433</v>
+        <f t="shared" si="0"/>
+        <v>31184.472182829151</v>
       </c>
       <c r="B26" s="11">
-        <f t="shared" ref="B26:B36" si="2">B25+1</f>
+        <f t="shared" ref="B26:B36" si="1">B25+1</f>
         <v>10</v>
       </c>
       <c r="D26" s="11">
         <f>SUM(A17:A26)</f>
-        <v>295525.87430456065</v>
+        <v>225990.37446819345</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12.5">
       <c r="A27" s="16">
+        <f t="shared" si="0"/>
+        <v>33679.229957455485</v>
+      </c>
+      <c r="B27" s="11">
         <f t="shared" si="1"/>
-        <v>44042.06994436487</v>
-      </c>
-      <c r="B27" s="11">
-        <f t="shared" si="2"/>
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.5">
       <c r="A28" s="16">
+        <f t="shared" si="0"/>
+        <v>36373.568354051924</v>
+      </c>
+      <c r="B28" s="11">
         <f t="shared" si="1"/>
-        <v>47565.435539914062</v>
-      </c>
-      <c r="B28" s="11">
-        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.5">
       <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>39283.453822376083</v>
+      </c>
+      <c r="B29" s="11">
         <f t="shared" si="1"/>
-        <v>51370.670383107194</v>
-      </c>
-      <c r="B29" s="11">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.5">
       <c r="A30" s="16">
+        <f t="shared" si="0"/>
+        <v>42426.130128166173</v>
+      </c>
+      <c r="B30" s="11">
         <f t="shared" si="1"/>
-        <v>55480.324013755773</v>
-      </c>
-      <c r="B30" s="11">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="D30" s="11" t="s">
@@ -1409,55 +1408,55 @@
     </row>
     <row r="31" spans="1:8" ht="12.5">
       <c r="A31" s="16">
+        <f t="shared" si="0"/>
+        <v>45820.220538419468</v>
+      </c>
+      <c r="B31" s="11">
         <f t="shared" si="1"/>
-        <v>59918.749934856241</v>
-      </c>
-      <c r="B31" s="11">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="D31" s="11">
         <f>SUM(A17:A31)</f>
-        <v>553903.12412055884</v>
+        <v>423572.97726866254</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="12.5">
       <c r="A32" s="16">
+        <f t="shared" si="0"/>
+        <v>49485.838181493025</v>
+      </c>
+      <c r="B32" s="11">
         <f t="shared" si="1"/>
-        <v>64712.249929644742</v>
-      </c>
-      <c r="B32" s="11">
-        <f t="shared" si="2"/>
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.5">
       <c r="A33" s="16">
+        <f t="shared" si="0"/>
+        <v>53444.705236012473</v>
+      </c>
+      <c r="B33" s="11">
         <f t="shared" si="1"/>
-        <v>69889.229924016327</v>
-      </c>
-      <c r="B33" s="11">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.5">
       <c r="A34" s="16">
+        <f t="shared" si="0"/>
+        <v>57720.281654893472</v>
+      </c>
+      <c r="B34" s="11">
         <f t="shared" si="1"/>
-        <v>75480.368317937638</v>
-      </c>
-      <c r="B34" s="11">
-        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.5">
       <c r="A35" s="16">
+        <f t="shared" si="0"/>
+        <v>62337.904187284956</v>
+      </c>
+      <c r="B35" s="11">
         <f t="shared" si="1"/>
-        <v>81518.797783372662</v>
-      </c>
-      <c r="B35" s="11">
-        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="D35" s="11" t="s">
@@ -1466,16 +1465,16 @@
     </row>
     <row r="36" spans="1:4" ht="12.5">
       <c r="A36" s="16">
+        <f t="shared" si="0"/>
+        <v>67324.936522267759</v>
+      </c>
+      <c r="B36" s="11">
         <f t="shared" si="1"/>
-        <v>88040.301606042485</v>
-      </c>
-      <c r="B36" s="11">
-        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="D36" s="11">
         <f>SUM(A17:A36)</f>
-        <v>933544.07168157259</v>
+        <v>713886.64305061428</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33500A77-C53B-4FDA-9242-DDA283C4C84C}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -1582,7 +1581,7 @@
       </c>
       <c r="H2" s="29">
         <f>Sheet1!B11</f>
-        <v>7168.5599999999995</v>
+        <v>6678.5599999999995</v>
       </c>
       <c r="J2" s="34" t="str">
         <f>Sheet1!G2</f>
@@ -1598,7 +1597,7 @@
       </c>
       <c r="N2" s="29">
         <f>Sheet1!K9</f>
-        <v>73.3</v>
+        <v>350</v>
       </c>
       <c r="P2" s="34" t="str">
         <f>Sheet1!J2</f>
@@ -1640,7 +1639,7 @@
       </c>
       <c r="H3" s="29">
         <f>Sheet1!B12</f>
-        <v>5280.0966666666664</v>
+        <v>5132.123333333333</v>
       </c>
       <c r="J3" s="34" t="str">
         <f>Sheet1!G3</f>
@@ -1656,7 +1655,7 @@
       </c>
       <c r="N3" s="29">
         <f>Sheet1!K10</f>
-        <v>80.93416666666667</v>
+        <v>0</v>
       </c>
       <c r="P3" s="34" t="str">
         <f>Sheet1!J3</f>
@@ -1672,7 +1671,7 @@
       </c>
       <c r="T3" s="30">
         <f>Sheet1!H20</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="13" thickBot="1">
@@ -1698,7 +1697,7 @@
       </c>
       <c r="H4" s="30">
         <f>Sheet1!B13</f>
-        <v>1888.4633333333331</v>
+        <v>1546.4366666666665</v>
       </c>
       <c r="J4" s="34" t="str">
         <f>Sheet1!G4</f>
@@ -1714,7 +1713,7 @@
       </c>
       <c r="N4" s="29">
         <f>Sheet1!K11</f>
-        <v>26.778333333333332</v>
+        <v>0</v>
       </c>
       <c r="P4" s="33" t="str">
         <f>Sheet1!J4</f>
@@ -1732,7 +1731,7 @@
       </c>
       <c r="B5" s="29">
         <f>Sheet1!E5</f>
-        <v>805.09666666666669</v>
+        <v>957.12333333333333</v>
       </c>
       <c r="D5" s="34" t="str">
         <f>Sheet1!D17</f>
@@ -1756,7 +1755,7 @@
       </c>
       <c r="N5" s="29">
         <f>Sheet1!K12</f>
-        <v>8.9608333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="13" thickBot="1">
@@ -1790,7 +1789,7 @@
       </c>
       <c r="N6" s="29">
         <f>Sheet1!K13</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="13" thickBot="1">
@@ -1824,7 +1823,7 @@
       </c>
       <c r="N7" s="31">
         <f>Sheet1!K14</f>
-        <v>197.97333333333336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1842,7 +1841,7 @@
       </c>
       <c r="K8" s="29">
         <f>Sheet1!H8</f>
-        <v>197.97333333333336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1870,7 +1869,7 @@
       </c>
       <c r="B10" s="29">
         <f>Sheet1!E10</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J10" s="34" t="str">
         <f>Sheet1!G10</f>
@@ -1888,7 +1887,7 @@
       </c>
       <c r="B11" s="31">
         <f>Sheet1!E11</f>
-        <v>5280.0966666666664</v>
+        <v>5132.123333333333</v>
       </c>
       <c r="J11" s="34" t="str">
         <f>Sheet1!G11</f>
@@ -1955,7 +1954,7 @@
       </c>
       <c r="K17" s="31">
         <f>SUM(K2:K16)</f>
-        <v>805.09666666666669</v>
+        <v>957.12333333333333</v>
       </c>
     </row>
   </sheetData>
